--- a/Result/ARIMA/Manufacturing/IND.xlsx
+++ b/Result/ARIMA/Manufacturing/IND.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>16.75237579755089</v>
+        <v>16.2485988578499</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>16.77044375204378</v>
+        <v>16.55658146164153</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>16.36999593737045</v>
+        <v>16.53242161070152</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6644546925096</v>
+        <v>16.18166463077969</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>16.70780360032094</v>
+        <v>16.35898625681103</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>16.41801286266626</v>
+        <v>16.66453429402533</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>16.22158380961347</v>
+        <v>16.38503688173556</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>16.20954935388915</v>
+        <v>15.95575588151746</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1015348492608</v>
+        <v>16.08032003856645</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>16.90284589656693</v>
+        <v>16.36155348947774</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>16.59759644222204</v>
+        <v>16.79765429799629</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>15.67626016051273</v>
+        <v>16.61200119478694</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>15.80079981708075</v>
+        <v>15.54003571945567</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>15.91571210784389</v>
+        <v>15.40563892040851</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>16.76413813082256</v>
+        <v>16.41824720020411</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>17.86585059655905</v>
+        <v>17.24845705007934</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>17.59634080064139</v>
+        <v>17.42940042975582</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>16.51857853000575</v>
+        <v>16.87224372638843</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>15.71931601640516</v>
+        <v>15.85825509430436</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>15.18053671327382</v>
+        <v>15.38184146475877</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>15.92702301820897</v>
+        <v>15.63080864992266</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>15.30702128315309</v>
+        <v>16.41002665604104</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>15.5587017264204</v>
+        <v>16.10240848857352</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>15.58738664870186</v>
+        <v>15.33062925660056</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.82724574050271</v>
+        <v>15.61797843209589</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>15.97301704470109</v>
+        <v>16.51831064661114</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>17.30365333111118</v>
+        <v>16.53529536440785</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>16.86456777544126</v>
+        <v>16.64097001610006</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09867414895781</v>
+        <v>16.78521562037126</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>17.14357766689418</v>
+        <v>16.7148550440743</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>17.02993424949175</v>
+        <v>16.68220913675773</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13933744469147</v>
+        <v>16.68342571737815</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>15.81692300717572</v>
+        <v>16.09022478733687</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>15.25302269276287</v>
+        <v>15.50938226738423</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>15.06557011109184</v>
+        <v>15.50822895520085</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>15.58385458634904</v>
+        <v>15.72998366417209</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>15.16223713314817</v>
+        <v>16.03359202125094</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>16.75237579755089</v>
+        <v>16.08944552471046</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>16.77044375204378</v>
+        <v>16.66115993175783</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>16.36999593737045</v>
+        <v>16.65192218058955</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6644546925096</v>
+        <v>16.19114867105358</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>16.70780360032094</v>
+        <v>16.56508355755991</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>16.41801286266626</v>
+        <v>16.54671281176488</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>16.22158380961347</v>
+        <v>16.22560625568105</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>16.20954935388915</v>
+        <v>16.05853029884547</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1015348492608</v>
+        <v>16.07345140303136</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>16.90284589656693</v>
+        <v>15.9677962956466</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>16.59759644222204</v>
+        <v>16.79964234344508</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>15.67626016051273</v>
+        <v>16.35264215995071</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>15.80079981708075</v>
+        <v>15.4682715156059</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>15.91571210784389</v>
+        <v>15.7381207904387</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>16.76413813082256</v>
+        <v>15.84605607145817</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>17.86585059655905</v>
+        <v>16.69030076951861</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>17.59634080064139</v>
+        <v>17.63924525182826</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>16.51857853000575</v>
+        <v>17.15709447613781</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>15.71931601640516</v>
+        <v>16.07823724989035</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>15.18053671327382</v>
+        <v>15.41739337159053</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>15.92702301820897</v>
+        <v>15.01055249797808</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>15.30702128315309</v>
+        <v>15.86134502669368</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>15.5587017264204</v>
+        <v>15.17159538831786</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>15.58738664870186</v>
+        <v>15.55956891243692</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.82724574050271</v>
+        <v>15.57891455041512</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>15.97301704470109</v>
+        <v>15.84551368789917</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>17.30365333111118</v>
+        <v>15.97337558856278</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>16.86456777544126</v>
+        <v>17.26085366863868</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09867414895781</v>
+        <v>16.6017093265964</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>17.14357766689418</v>
+        <v>16.86670847951624</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>17.02993424949175</v>
+        <v>16.82165251493591</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13933744469147</v>
+        <v>16.66047115855641</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>15.81692300717572</v>
+        <v>15.76940606821367</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>15.25302269276287</v>
+        <v>15.57671541462953</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>15.06557011109184</v>
+        <v>15.08369768791743</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>15.58385458634904</v>
+        <v>15.02624484843359</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>15.16223713314817</v>
+        <v>15.6077229691664</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>15.01823875014704</v>
+        <v>15.16485051042688</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>14.88153066744756</v>
+        <v>15.14146405613493</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>13.47361810745156</v>
+        <v>15.07990969697848</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>13.68338528944649</v>
+        <v>13.79863709251337</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>14.07022547391186</v>
+        <v>14.31740365201596</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
